--- a/StockRowData/GOOGLMetricsQ.xlsx
+++ b/StockRowData/GOOGLMetricsQ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="GOOGL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOOGL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
 </workbook>
